--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>d</t>
   </si>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -245,6 +245,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -257,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,6 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -596,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +647,9 @@
       <c r="K2" s="1">
         <v>8</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5">
+        <v>9</v>
+      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -702,40 +716,43 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="5"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="18"/>
       <c r="N3" t="s">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="20">
         <v>3</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="21">
         <v>4</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="20">
         <v>6</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="22">
         <v>7</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="19">
         <v>9</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="20">
+        <v>9</v>
+      </c>
+      <c r="X3" s="21">
         <v>10</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>12</v>
       </c>
     </row>
@@ -755,8 +772,8 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -777,8 +794,8 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="18"/>
       <c r="N5" t="s">
         <v>2</v>
@@ -836,8 +853,8 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="18"/>
     </row>
     <row r="7" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -858,11 +875,11 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -878,8 +895,8 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -896,12 +913,12 @@
       <c r="H9" s="15">
         <v>0</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="5"/>
+      <c r="I9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
@@ -914,50 +931,53 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="12">
-        <v>3</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="5"/>
+      <c r="J10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="14">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="12">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="14">
         <v>4</v>
       </c>
-      <c r="J11" s="15">
+      <c r="K12" s="15">
         <v>8</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.25">

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -609,7 +609,7 @@
   <dimension ref="B2:AE13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AD18" sqref="AD18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,8 +709,12 @@
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="10">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11">
+        <v>7</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -789,8 +793,12 @@
       <c r="E5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -849,7 +857,9 @@
       <c r="F6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
